--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/test/test_ind_AQR.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/test/test_ind_AQR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="casistiche Indeterm" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="test BR e Exp_1" sheetId="13" r:id="rId3"/>
     <sheet name="Query" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="101">
   <si>
     <t>SNDG</t>
   </si>
@@ -406,6 +406,54 @@
   <si>
     <t>missing  (0 se type flag)</t>
   </si>
+  <si>
+    <t>CORPORATE</t>
+  </si>
+  <si>
+    <t>DS01;DS06;</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>DS02;DS05;</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>BR15;DS01;</t>
+  </si>
+  <si>
+    <t>DS06;</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>BR15;</t>
+  </si>
+  <si>
+    <t>BR03;DS01;DS05;</t>
+  </si>
+  <si>
+    <t>FAST_TRACK</t>
+  </si>
+  <si>
+    <t>BR16;DS03;DS06;</t>
+  </si>
+  <si>
+    <t>BR16;DS01;</t>
+  </si>
 </sst>
 </file>
 
@@ -452,7 +500,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,6 +561,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -560,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -628,7 +688,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -648,15 +728,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -983,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,10 +1065,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1064,10 +1135,10 @@
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="30"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1109,7 +1180,7 @@
   <dimension ref="A2:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,30 +2251,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -2510,55 +2582,55 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
       <c r="J12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
@@ -2582,85 +2654,576 @@
       </c>
       <c r="L16" s="33"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="20">
         <v>2</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="20">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="20">
         <v>4</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="N24" s="28"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <v>87986803</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0</v>
+      </c>
+      <c r="F25" s="24">
+        <v>0</v>
+      </c>
+      <c r="G25" s="24">
+        <v>0</v>
+      </c>
+      <c r="H25" s="24">
+        <v>1</v>
+      </c>
+      <c r="I25" s="24">
+        <v>0</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="24">
+        <v>1</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>78234149</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24">
+        <v>1</v>
+      </c>
+      <c r="G26" s="24">
+        <v>0</v>
+      </c>
+      <c r="H26" s="24">
+        <v>0</v>
+      </c>
+      <c r="I26" s="24">
+        <v>0</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="24">
+        <v>0</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>78426070</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0</v>
+      </c>
+      <c r="E27" s="24">
+        <v>0</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0</v>
+      </c>
+      <c r="G27" s="24">
+        <v>3</v>
+      </c>
+      <c r="H27" s="24">
+        <v>0</v>
+      </c>
+      <c r="I27" s="24">
+        <v>0</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="24">
+        <v>0</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <v>86511100</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0</v>
+      </c>
+      <c r="G28" s="24">
+        <v>0</v>
+      </c>
+      <c r="H28" s="24">
+        <v>0</v>
+      </c>
+      <c r="I28" s="24">
+        <v>0</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="24">
+        <v>1</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>78425618</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0</v>
+      </c>
+      <c r="F29" s="24">
+        <v>0</v>
+      </c>
+      <c r="G29" s="24">
+        <v>2</v>
+      </c>
+      <c r="H29" s="24">
+        <v>0</v>
+      </c>
+      <c r="I29" s="24">
+        <v>0</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29" s="24">
+        <v>0</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
+        <v>78300922</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0</v>
+      </c>
+      <c r="F30" s="24">
+        <v>0</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0</v>
+      </c>
+      <c r="H30" s="24">
+        <v>1</v>
+      </c>
+      <c r="I30" s="24">
+        <v>0</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30" s="24">
+        <v>1</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
+        <v>78297134</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="24">
+        <v>1</v>
+      </c>
+      <c r="E31" s="24">
+        <v>0</v>
+      </c>
+      <c r="F31" s="24">
+        <v>0</v>
+      </c>
+      <c r="G31" s="24">
+        <v>0</v>
+      </c>
+      <c r="H31" s="24">
+        <v>0</v>
+      </c>
+      <c r="I31" s="24">
+        <v>0</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" s="24">
+        <v>1</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
+        <v>78356868</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="24">
+        <v>0</v>
+      </c>
+      <c r="E32" s="24">
+        <v>0</v>
+      </c>
+      <c r="F32" s="24">
+        <v>0</v>
+      </c>
+      <c r="G32" s="24">
+        <v>0</v>
+      </c>
+      <c r="H32" s="24">
+        <v>1</v>
+      </c>
+      <c r="I32" s="24">
+        <v>0</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" s="24">
+        <v>1</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>78301578</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="24">
+        <v>0</v>
+      </c>
+      <c r="E33" s="24">
+        <v>0</v>
+      </c>
+      <c r="F33" s="24">
+        <v>1</v>
+      </c>
+      <c r="G33" s="24">
+        <v>0</v>
+      </c>
+      <c r="H33" s="24">
+        <v>0</v>
+      </c>
+      <c r="I33" s="24">
+        <v>0</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K33" s="24">
+        <v>0</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>83713674</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="24">
+        <v>0</v>
+      </c>
+      <c r="E34" s="24">
+        <v>1</v>
+      </c>
+      <c r="F34" s="24">
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
+        <v>0</v>
+      </c>
+      <c r="H34" s="24">
+        <v>0</v>
+      </c>
+      <c r="I34" s="24">
+        <v>0</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="K34" s="24">
+        <v>0</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>78247453</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="24">
+        <v>0</v>
+      </c>
+      <c r="E35" s="24">
+        <v>1</v>
+      </c>
+      <c r="F35" s="24">
+        <v>0</v>
+      </c>
+      <c r="G35" s="24">
+        <v>0</v>
+      </c>
+      <c r="H35" s="24">
+        <v>0</v>
+      </c>
+      <c r="I35" s="24">
+        <v>0</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24">
+        <v>0</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2669,11 +3232,6 @@
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
@@ -2681,6 +3239,11 @@
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="C13:I13"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2694,7 +3257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
